--- a/datasheets/compare/compare_algs_S-0.xlsx
+++ b/datasheets/compare/compare_algs_S-0.xlsx
@@ -452,57 +452,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>577</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="n">
-        <v>5477</v>
+        <v>1295</v>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2842</v>
+        <v>-1726</v>
       </c>
       <c r="B3" t="n">
-        <v>9205</v>
+        <v>6601</v>
       </c>
       <c r="C3" t="n">
-        <v>180</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2368</v>
+        <v>1613</v>
       </c>
       <c r="B4" t="n">
-        <v>8238</v>
+        <v>7394</v>
       </c>
       <c r="C4" t="n">
-        <v>388</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>523</v>
+        <v>-313</v>
       </c>
       <c r="B5" t="n">
-        <v>5637</v>
+        <v>4459</v>
       </c>
       <c r="C5" t="n">
-        <v>386</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>177</v>
+        <v>3867</v>
       </c>
       <c r="C6" t="n">
-        <v>605</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="7">
@@ -510,43 +510,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>2778</v>
+        <v>3623</v>
       </c>
       <c r="C7" t="n">
-        <v>546</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1286</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>6113</v>
+        <v>2474</v>
       </c>
       <c r="C8" t="n">
-        <v>153</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>2250</v>
       </c>
       <c r="B9" t="n">
-        <v>1506</v>
+        <v>7568</v>
       </c>
       <c r="C9" t="n">
-        <v>338</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="C10" t="n">
-        <v>328</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11">
@@ -554,54 +554,54 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1101</v>
+        <v>1509</v>
       </c>
       <c r="C11" t="n">
-        <v>405</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2041</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>8134</v>
+        <v>736</v>
       </c>
       <c r="C12" t="n">
-        <v>161</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-77</v>
+        <v>1496</v>
       </c>
       <c r="B13" t="n">
-        <v>363</v>
+        <v>7262</v>
       </c>
       <c r="C13" t="n">
-        <v>490</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1</v>
+        <v>2678</v>
       </c>
       <c r="B14" t="n">
-        <v>1735</v>
+        <v>9622</v>
       </c>
       <c r="C14" t="n">
-        <v>184</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>6772</v>
+        <v>2255</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="16">
@@ -609,142 +609,142 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1091</v>
+        <v>1809</v>
       </c>
       <c r="C16" t="n">
-        <v>362</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1119</v>
+        <v>1020</v>
       </c>
       <c r="B17" t="n">
-        <v>6325</v>
+        <v>6148</v>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5</v>
+        <v>394</v>
       </c>
       <c r="B18" t="n">
-        <v>1003</v>
+        <v>4511</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>293</v>
+        <v>2603</v>
       </c>
       <c r="C19" t="n">
-        <v>441</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="B20" t="n">
-        <v>3699</v>
+        <v>4686</v>
       </c>
       <c r="C20" t="n">
-        <v>523</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1087</v>
+        <v>1250</v>
       </c>
       <c r="B21" t="n">
-        <v>5615</v>
+        <v>7020</v>
       </c>
       <c r="C21" t="n">
-        <v>118</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1690</v>
+        <v>1880</v>
       </c>
       <c r="B22" t="n">
-        <v>7399</v>
+        <v>8049</v>
       </c>
       <c r="C22" t="n">
-        <v>224</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>897</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>5802</v>
+        <v>5065</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>101</v>
+        <v>1354</v>
       </c>
       <c r="B24" t="n">
-        <v>5110</v>
+        <v>6328</v>
       </c>
       <c r="C24" t="n">
-        <v>386</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1514</v>
+        <v>88</v>
       </c>
       <c r="B25" t="n">
-        <v>6757</v>
+        <v>3314</v>
       </c>
       <c r="C25" t="n">
-        <v>151</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="B26" t="n">
-        <v>1187</v>
+        <v>4075</v>
       </c>
       <c r="C26" t="n">
-        <v>558</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>39</v>
+        <v>-6</v>
       </c>
       <c r="B27" t="n">
-        <v>4852</v>
+        <v>4068</v>
       </c>
       <c r="C27" t="n">
-        <v>81</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>275</v>
+        <v>1233</v>
       </c>
       <c r="B28" t="n">
-        <v>4706</v>
+        <v>6208</v>
       </c>
       <c r="C28" t="n">
-        <v>433</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="29">
@@ -752,384 +752,384 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>2907</v>
+        <v>1671</v>
       </c>
       <c r="C29" t="n">
-        <v>226</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1</v>
+        <v>1879</v>
       </c>
       <c r="B30" t="n">
-        <v>482</v>
+        <v>7315</v>
       </c>
       <c r="C30" t="n">
-        <v>291</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2426</v>
+        <v>170</v>
       </c>
       <c r="B31" t="n">
-        <v>9615</v>
+        <v>5034</v>
       </c>
       <c r="C31" t="n">
-        <v>365</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="B32" t="n">
-        <v>3758</v>
+        <v>280</v>
       </c>
       <c r="C32" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1194</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>6899</v>
+        <v>2428</v>
       </c>
       <c r="C33" t="n">
-        <v>468</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1383</v>
+        <v>-4</v>
       </c>
       <c r="B34" t="n">
-        <v>7403</v>
+        <v>2111</v>
       </c>
       <c r="C34" t="n">
-        <v>105</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" t="n">
-        <v>3023</v>
+        <v>1638</v>
       </c>
       <c r="C35" t="n">
-        <v>492</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-776</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>5691</v>
+        <v>2523</v>
       </c>
       <c r="C36" t="n">
-        <v>165</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>4191</v>
+        <v>4712</v>
       </c>
       <c r="C37" t="n">
-        <v>579</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1074</v>
+        <v>1052</v>
       </c>
       <c r="B38" t="n">
-        <v>5819</v>
+        <v>7046</v>
       </c>
       <c r="C38" t="n">
-        <v>390</v>
+        <v>7478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="B39" t="n">
-        <v>2195</v>
+        <v>4043</v>
       </c>
       <c r="C39" t="n">
-        <v>394</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-2440</v>
+        <v>1281</v>
       </c>
       <c r="B40" t="n">
-        <v>8869</v>
+        <v>6489</v>
       </c>
       <c r="C40" t="n">
-        <v>183</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>727</v>
+        <v>-45</v>
       </c>
       <c r="B41" t="n">
-        <v>5198</v>
+        <v>314</v>
       </c>
       <c r="C41" t="n">
-        <v>343</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="B42" t="n">
-        <v>1992</v>
+        <v>6460</v>
       </c>
       <c r="C42" t="n">
-        <v>515</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B43" t="n">
-        <v>421</v>
+        <v>2242</v>
       </c>
       <c r="C43" t="n">
-        <v>101</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B44" t="n">
-        <v>3468</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1471</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>7507</v>
+        <v>1110</v>
       </c>
       <c r="C45" t="n">
-        <v>235</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>3173</v>
+        <v>4657</v>
       </c>
       <c r="C46" t="n">
-        <v>349</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1539</v>
+        <v>110</v>
       </c>
       <c r="B47" t="n">
-        <v>6491</v>
+        <v>2071</v>
       </c>
       <c r="C47" t="n">
-        <v>110</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>7730</v>
+        <v>609</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>5355</v>
+        <v>3746</v>
       </c>
       <c r="C49" t="n">
-        <v>554</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>774</v>
+        <v>145</v>
       </c>
       <c r="B50" t="n">
-        <v>6617</v>
+        <v>4947</v>
       </c>
       <c r="C50" t="n">
-        <v>221</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="B51" t="n">
-        <v>3098</v>
+        <v>6635</v>
       </c>
       <c r="C51" t="n">
-        <v>278</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>-583</v>
       </c>
       <c r="B52" t="n">
-        <v>895</v>
+        <v>5881</v>
       </c>
       <c r="C52" t="n">
-        <v>323</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>4505</v>
+        <v>3355</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1826</v>
+        <v>-566</v>
       </c>
       <c r="B54" t="n">
-        <v>7141</v>
+        <v>5957</v>
       </c>
       <c r="C54" t="n">
-        <v>418</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>721</v>
+        <v>-1635</v>
       </c>
       <c r="B55" t="n">
-        <v>5929</v>
+        <v>8159</v>
       </c>
       <c r="C55" t="n">
-        <v>194</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="B56" t="n">
-        <v>1833</v>
+        <v>4672</v>
       </c>
       <c r="C56" t="n">
-        <v>60</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1156</v>
+        <v>2451</v>
       </c>
       <c r="B57" t="n">
-        <v>6322</v>
+        <v>9572</v>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1806</v>
+        <v>-838</v>
       </c>
       <c r="B58" t="n">
-        <v>8263</v>
+        <v>5385</v>
       </c>
       <c r="C58" t="n">
-        <v>238</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="B59" t="n">
-        <v>5074</v>
+        <v>4666</v>
       </c>
       <c r="C59" t="n">
-        <v>36</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="B60" t="n">
-        <v>572</v>
+        <v>4725</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="B61" t="n">
-        <v>3496</v>
+        <v>3938</v>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B62" t="n">
-        <v>190</v>
+        <v>2873</v>
       </c>
       <c r="C62" t="n">
-        <v>257</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-8</v>
+        <v>1260</v>
       </c>
       <c r="B63" t="n">
-        <v>3478</v>
+        <v>6928</v>
       </c>
       <c r="C63" t="n">
-        <v>398</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="64">
@@ -1137,120 +1137,120 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>3653</v>
+        <v>1129</v>
       </c>
       <c r="C64" t="n">
-        <v>349</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1678</v>
+        <v>-2358</v>
       </c>
       <c r="B65" t="n">
-        <v>7068</v>
+        <v>9115</v>
       </c>
       <c r="C65" t="n">
-        <v>332</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>695</v>
       </c>
       <c r="B66" t="n">
-        <v>27</v>
+        <v>5395</v>
       </c>
       <c r="C66" t="n">
-        <v>525</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-701</v>
+        <v>1211</v>
       </c>
       <c r="B67" t="n">
-        <v>5603</v>
+        <v>6529</v>
       </c>
       <c r="C67" t="n">
-        <v>121</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="B68" t="n">
-        <v>2576</v>
+        <v>5765</v>
       </c>
       <c r="C68" t="n">
-        <v>121</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1212</v>
+        <v>1782</v>
       </c>
       <c r="B69" t="n">
-        <v>6986</v>
+        <v>7274</v>
       </c>
       <c r="C69" t="n">
-        <v>311</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>302</v>
+        <v>-6</v>
       </c>
       <c r="B70" t="n">
-        <v>4968</v>
+        <v>3086</v>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B71" t="n">
-        <v>3021</v>
+        <v>1087</v>
       </c>
       <c r="C71" t="n">
-        <v>466</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-365</v>
+        <v>1122</v>
       </c>
       <c r="B72" t="n">
-        <v>3921</v>
+        <v>7232</v>
       </c>
       <c r="C72" t="n">
-        <v>366</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>895</v>
+        <v>-1</v>
       </c>
       <c r="B73" t="n">
-        <v>6548</v>
+        <v>164</v>
       </c>
       <c r="C73" t="n">
-        <v>74</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="B74" t="n">
-        <v>2991</v>
+        <v>5745</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="75">
@@ -1258,120 +1258,120 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1595</v>
+        <v>201</v>
       </c>
       <c r="C75" t="n">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-1238</v>
       </c>
       <c r="B76" t="n">
-        <v>34</v>
+        <v>6047</v>
       </c>
       <c r="C76" t="n">
-        <v>120</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1820</v>
+        <v>2608</v>
       </c>
       <c r="C77" t="n">
-        <v>122</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>861</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>5034</v>
+        <v>2159</v>
       </c>
       <c r="C78" t="n">
-        <v>205</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>30</v>
+        <v>1761</v>
       </c>
       <c r="B79" t="n">
-        <v>1810</v>
+        <v>7224</v>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>783</v>
+        <v>2022</v>
       </c>
       <c r="B80" t="n">
-        <v>5032</v>
+        <v>7714</v>
       </c>
       <c r="C80" t="n">
-        <v>254</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>4512</v>
+        <v>1715</v>
       </c>
       <c r="C81" t="n">
-        <v>196</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>29</v>
+        <v>406</v>
       </c>
       <c r="B82" t="n">
-        <v>4406</v>
+        <v>3856</v>
       </c>
       <c r="C82" t="n">
-        <v>61</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1</v>
+        <v>-95</v>
       </c>
       <c r="B83" t="n">
-        <v>3151</v>
+        <v>1390</v>
       </c>
       <c r="C83" t="n">
-        <v>280</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>450</v>
+        <v>1536</v>
       </c>
       <c r="C84" t="n">
-        <v>330</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>3800</v>
+        <v>2523</v>
       </c>
       <c r="C85" t="n">
-        <v>244</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="86">
@@ -1379,175 +1379,175 @@
         <v>-2</v>
       </c>
       <c r="B86" t="n">
-        <v>2645</v>
+        <v>2923</v>
       </c>
       <c r="C86" t="n">
-        <v>324</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1</v>
+        <v>-1644</v>
       </c>
       <c r="B87" t="n">
-        <v>891</v>
+        <v>6621</v>
       </c>
       <c r="C87" t="n">
-        <v>332</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-168</v>
+        <v>21</v>
       </c>
       <c r="B88" t="n">
-        <v>3298</v>
+        <v>363</v>
       </c>
       <c r="C88" t="n">
-        <v>569</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>5588</v>
+        <v>319</v>
       </c>
       <c r="C89" t="n">
-        <v>482</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1096</v>
+        <v>664</v>
       </c>
       <c r="B90" t="n">
-        <v>6186</v>
+        <v>5871</v>
       </c>
       <c r="C90" t="n">
-        <v>415</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-1932</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>8027</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>385</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B92" t="n">
-        <v>3625</v>
+        <v>2433</v>
       </c>
       <c r="C92" t="n">
-        <v>449</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-577</v>
+        <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>6437</v>
+        <v>3922</v>
       </c>
       <c r="C93" t="n">
-        <v>75</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="B94" t="n">
-        <v>1770</v>
+        <v>1463</v>
       </c>
       <c r="C94" t="n">
-        <v>516</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3374</v>
+        <v>337</v>
       </c>
       <c r="B95" t="n">
-        <v>9990</v>
+        <v>5265</v>
       </c>
       <c r="C95" t="n">
-        <v>206</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1269</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>6997</v>
+        <v>572</v>
       </c>
       <c r="C96" t="n">
-        <v>302</v>
+        <v>702</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="B97" t="n">
-        <v>3585</v>
+        <v>5982</v>
       </c>
       <c r="C97" t="n">
-        <v>358</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>678</v>
+        <v>-1</v>
       </c>
       <c r="B98" t="n">
-        <v>5394</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>6696</v>
+        <v>3973</v>
       </c>
       <c r="C99" t="n">
-        <v>184</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
-        <v>397</v>
+        <v>3966</v>
       </c>
       <c r="C100" t="n">
-        <v>546</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="B101" t="n">
-        <v>3167</v>
+        <v>6550</v>
       </c>
       <c r="C101" t="n">
-        <v>245</v>
+        <v>6672</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-0.xlsx
+++ b/datasheets/compare/compare_algs_S-0.xlsx
@@ -452,112 +452,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1295</v>
+        <v>4062</v>
       </c>
       <c r="C2" t="n">
-        <v>1539</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1726</v>
+        <v>3433</v>
       </c>
       <c r="B3" t="n">
-        <v>6601</v>
+        <v>8222</v>
       </c>
       <c r="C3" t="n">
-        <v>6835</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1613</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7394</v>
+        <v>3059</v>
       </c>
       <c r="C4" t="n">
-        <v>7724</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-313</v>
+        <v>47</v>
       </c>
       <c r="B5" t="n">
-        <v>4459</v>
+        <v>1997</v>
       </c>
       <c r="C5" t="n">
-        <v>4791</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3905</v>
       </c>
       <c r="B6" t="n">
-        <v>3867</v>
+        <v>7369</v>
       </c>
       <c r="C6" t="n">
-        <v>4041</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3623</v>
+        <v>2299</v>
       </c>
       <c r="C7" t="n">
-        <v>3829</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2474</v>
+        <v>3922</v>
       </c>
       <c r="C8" t="n">
-        <v>2798</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2250</v>
+        <v>2161</v>
       </c>
       <c r="B9" t="n">
-        <v>7568</v>
+        <v>5837</v>
       </c>
       <c r="C9" t="n">
-        <v>7898</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="B10" t="n">
-        <v>831</v>
+        <v>4767</v>
       </c>
       <c r="C10" t="n">
-        <v>1009</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="B11" t="n">
-        <v>1509</v>
+        <v>4682</v>
       </c>
       <c r="C11" t="n">
-        <v>1903</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="12">
@@ -565,989 +565,989 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>736</v>
+        <v>2495</v>
       </c>
       <c r="C12" t="n">
-        <v>1068</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1496</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>7262</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>7608</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2678</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>9622</v>
+        <v>4405</v>
       </c>
       <c r="C14" t="n">
-        <v>9774</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>3327</v>
       </c>
       <c r="B15" t="n">
-        <v>2255</v>
+        <v>6383</v>
       </c>
       <c r="C15" t="n">
-        <v>2521</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B16" t="n">
-        <v>1809</v>
+        <v>4730</v>
       </c>
       <c r="C16" t="n">
-        <v>2057</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1020</v>
+        <v>1418</v>
       </c>
       <c r="B17" t="n">
-        <v>6148</v>
+        <v>5156</v>
       </c>
       <c r="C17" t="n">
-        <v>6312</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>4511</v>
+        <v>2123</v>
       </c>
       <c r="C18" t="n">
-        <v>4689</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="B19" t="n">
-        <v>2603</v>
+        <v>4571</v>
       </c>
       <c r="C19" t="n">
-        <v>2797</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>828</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>4686</v>
+        <v>308</v>
       </c>
       <c r="C20" t="n">
-        <v>4904</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1250</v>
+        <v>665</v>
       </c>
       <c r="B21" t="n">
-        <v>7020</v>
+        <v>4371</v>
       </c>
       <c r="C21" t="n">
-        <v>7162</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1880</v>
+        <v>1189</v>
       </c>
       <c r="B22" t="n">
-        <v>8049</v>
+        <v>5677</v>
       </c>
       <c r="C22" t="n">
-        <v>8285</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>5065</v>
+        <v>2877</v>
       </c>
       <c r="C23" t="n">
-        <v>5173</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1354</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>6328</v>
+        <v>744</v>
       </c>
       <c r="C24" t="n">
-        <v>6470</v>
+        <v>958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88</v>
+        <v>4245</v>
       </c>
       <c r="B25" t="n">
-        <v>3314</v>
+        <v>8801</v>
       </c>
       <c r="C25" t="n">
-        <v>3628</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>331</v>
+        <v>4324</v>
       </c>
       <c r="B26" t="n">
-        <v>4075</v>
+        <v>7962</v>
       </c>
       <c r="C26" t="n">
-        <v>4367</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-6</v>
+        <v>1685</v>
       </c>
       <c r="B27" t="n">
-        <v>4068</v>
+        <v>6547</v>
       </c>
       <c r="C27" t="n">
-        <v>4326</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1233</v>
+        <v>5621</v>
       </c>
       <c r="B28" t="n">
-        <v>6208</v>
+        <v>9263</v>
       </c>
       <c r="C28" t="n">
-        <v>6550</v>
+        <v>9401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>2329</v>
       </c>
       <c r="B29" t="n">
-        <v>1671</v>
+        <v>6399</v>
       </c>
       <c r="C29" t="n">
-        <v>1891</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1879</v>
+        <v>4121</v>
       </c>
       <c r="B30" t="n">
-        <v>7315</v>
+        <v>7472</v>
       </c>
       <c r="C30" t="n">
-        <v>7619</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>170</v>
+        <v>5100</v>
       </c>
       <c r="B31" t="n">
-        <v>5034</v>
+        <v>8686</v>
       </c>
       <c r="C31" t="n">
-        <v>5128</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-6</v>
+        <v>1885</v>
       </c>
       <c r="B32" t="n">
-        <v>280</v>
+        <v>4941</v>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>2180</v>
       </c>
       <c r="B33" t="n">
-        <v>2428</v>
+        <v>5022</v>
       </c>
       <c r="C33" t="n">
-        <v>2502</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-4</v>
+        <v>1398</v>
       </c>
       <c r="B34" t="n">
-        <v>2111</v>
+        <v>4571</v>
       </c>
       <c r="C34" t="n">
-        <v>2423</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1</v>
+        <v>1806</v>
       </c>
       <c r="B35" t="n">
-        <v>1638</v>
+        <v>5784</v>
       </c>
       <c r="C35" t="n">
-        <v>1772</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B36" t="n">
-        <v>2523</v>
+        <v>658</v>
       </c>
       <c r="C36" t="n">
-        <v>2815</v>
+        <v>972</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>4712</v>
+        <v>96</v>
       </c>
       <c r="C37" t="n">
-        <v>4934</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1052</v>
+        <v>165</v>
       </c>
       <c r="B38" t="n">
-        <v>7046</v>
+        <v>4141</v>
       </c>
       <c r="C38" t="n">
-        <v>7478</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>4043</v>
+        <v>3027</v>
       </c>
       <c r="C39" t="n">
-        <v>4313</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1281</v>
+        <v>9</v>
       </c>
       <c r="B40" t="n">
-        <v>6489</v>
+        <v>3463</v>
       </c>
       <c r="C40" t="n">
-        <v>6869</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-45</v>
+        <v>2730</v>
       </c>
       <c r="B41" t="n">
-        <v>314</v>
+        <v>6032</v>
       </c>
       <c r="C41" t="n">
-        <v>502</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1561</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>6460</v>
+        <v>1729</v>
       </c>
       <c r="C42" t="n">
-        <v>6560</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54</v>
+        <v>3483</v>
       </c>
       <c r="B43" t="n">
-        <v>2242</v>
+        <v>7107</v>
       </c>
       <c r="C43" t="n">
-        <v>2466</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2</v>
+        <v>1478</v>
       </c>
       <c r="B44" t="n">
-        <v>124</v>
+        <v>4544</v>
       </c>
       <c r="C44" t="n">
-        <v>296</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>4073</v>
       </c>
       <c r="B45" t="n">
-        <v>1110</v>
+        <v>7913</v>
       </c>
       <c r="C45" t="n">
-        <v>1330</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1829</v>
       </c>
       <c r="B46" t="n">
-        <v>4657</v>
+        <v>7024</v>
       </c>
       <c r="C46" t="n">
-        <v>4767</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>110</v>
+        <v>3165</v>
       </c>
       <c r="B47" t="n">
-        <v>2071</v>
+        <v>8001</v>
       </c>
       <c r="C47" t="n">
-        <v>2309</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="B48" t="n">
-        <v>609</v>
+        <v>7764</v>
       </c>
       <c r="C48" t="n">
-        <v>719</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>2249</v>
       </c>
       <c r="B49" t="n">
-        <v>3746</v>
+        <v>6791</v>
       </c>
       <c r="C49" t="n">
-        <v>3952</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="B50" t="n">
-        <v>4947</v>
+        <v>300</v>
       </c>
       <c r="C50" t="n">
-        <v>5139</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1695</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>6635</v>
+        <v>3022</v>
       </c>
       <c r="C51" t="n">
-        <v>6807</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-583</v>
+        <v>9</v>
       </c>
       <c r="B52" t="n">
-        <v>5881</v>
+        <v>3447</v>
       </c>
       <c r="C52" t="n">
-        <v>5999</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>3355</v>
+        <v>2345</v>
       </c>
       <c r="C53" t="n">
-        <v>3491</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-566</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>5957</v>
+        <v>2537</v>
       </c>
       <c r="C54" t="n">
-        <v>6223</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1635</v>
+        <v>2629</v>
       </c>
       <c r="B55" t="n">
-        <v>8159</v>
+        <v>7701</v>
       </c>
       <c r="C55" t="n">
-        <v>8241</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>789</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>4672</v>
+        <v>77</v>
       </c>
       <c r="C56" t="n">
-        <v>4836</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2451</v>
+        <v>2144</v>
       </c>
       <c r="B57" t="n">
-        <v>9572</v>
+        <v>6526</v>
       </c>
       <c r="C57" t="n">
-        <v>9824</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-838</v>
+        <v>5563</v>
       </c>
       <c r="B58" t="n">
-        <v>5385</v>
+        <v>8853</v>
       </c>
       <c r="C58" t="n">
-        <v>5591</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>4666</v>
+        <v>4174</v>
       </c>
       <c r="C59" t="n">
-        <v>5032</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="B60" t="n">
-        <v>4725</v>
+        <v>1216</v>
       </c>
       <c r="C60" t="n">
-        <v>4895</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>282</v>
+        <v>2057</v>
       </c>
       <c r="B61" t="n">
-        <v>3938</v>
+        <v>6705</v>
       </c>
       <c r="C61" t="n">
-        <v>4176</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-3</v>
+        <v>57</v>
       </c>
       <c r="B62" t="n">
-        <v>2873</v>
+        <v>1167</v>
       </c>
       <c r="C62" t="n">
-        <v>3183</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1260</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>6928</v>
+        <v>824</v>
       </c>
       <c r="C63" t="n">
-        <v>7210</v>
+        <v>974</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>3985</v>
       </c>
       <c r="B64" t="n">
-        <v>1129</v>
+        <v>7081</v>
       </c>
       <c r="C64" t="n">
-        <v>1275</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2358</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>9115</v>
+        <v>1267</v>
       </c>
       <c r="C65" t="n">
-        <v>9339</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>695</v>
+        <v>131</v>
       </c>
       <c r="B66" t="n">
-        <v>5395</v>
+        <v>3967</v>
       </c>
       <c r="C66" t="n">
-        <v>5503</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1211</v>
+        <v>2077</v>
       </c>
       <c r="B67" t="n">
-        <v>6529</v>
+        <v>5915</v>
       </c>
       <c r="C67" t="n">
-        <v>6667</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>5765</v>
+        <v>226</v>
       </c>
       <c r="C68" t="n">
-        <v>6009</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1782</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>7274</v>
+        <v>3618</v>
       </c>
       <c r="C69" t="n">
-        <v>7440</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>3086</v>
+        <v>2791</v>
       </c>
       <c r="C70" t="n">
-        <v>3302</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1087</v>
+        <v>4350</v>
       </c>
       <c r="C71" t="n">
-        <v>1199</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1122</v>
+        <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>7232</v>
+        <v>769</v>
       </c>
       <c r="C72" t="n">
-        <v>7490</v>
+        <v>911</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1</v>
+        <v>1003</v>
       </c>
       <c r="B73" t="n">
-        <v>164</v>
+        <v>6079</v>
       </c>
       <c r="C73" t="n">
-        <v>408</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1071</v>
+        <v>2285</v>
       </c>
       <c r="B74" t="n">
-        <v>5745</v>
+        <v>6269</v>
       </c>
       <c r="C74" t="n">
-        <v>6091</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>201</v>
+        <v>889</v>
       </c>
       <c r="C75" t="n">
-        <v>211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1238</v>
+        <v>2292</v>
       </c>
       <c r="B76" t="n">
-        <v>6047</v>
+        <v>5850</v>
       </c>
       <c r="C76" t="n">
-        <v>6313</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>1883</v>
       </c>
       <c r="B77" t="n">
-        <v>2608</v>
+        <v>6047</v>
       </c>
       <c r="C77" t="n">
-        <v>2814</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>2159</v>
+        <v>3851</v>
       </c>
       <c r="C78" t="n">
-        <v>2407</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1761</v>
+        <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>7224</v>
+        <v>3700</v>
       </c>
       <c r="C79" t="n">
-        <v>7500</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2022</v>
+        <v>53</v>
       </c>
       <c r="B80" t="n">
-        <v>7714</v>
+        <v>1575</v>
       </c>
       <c r="C80" t="n">
-        <v>7938</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>4386</v>
       </c>
       <c r="B81" t="n">
-        <v>1715</v>
+        <v>7758</v>
       </c>
       <c r="C81" t="n">
-        <v>1801</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>406</v>
+        <v>975</v>
       </c>
       <c r="B82" t="n">
-        <v>3856</v>
+        <v>6289</v>
       </c>
       <c r="C82" t="n">
-        <v>4188</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-95</v>
+        <v>1838</v>
       </c>
       <c r="B83" t="n">
-        <v>1390</v>
+        <v>6602</v>
       </c>
       <c r="C83" t="n">
-        <v>1630</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B84" t="n">
-        <v>1536</v>
+        <v>2794</v>
       </c>
       <c r="C84" t="n">
-        <v>1798</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="B85" t="n">
-        <v>2523</v>
+        <v>4434</v>
       </c>
       <c r="C85" t="n">
-        <v>2655</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-2</v>
+        <v>341</v>
       </c>
       <c r="B86" t="n">
-        <v>2923</v>
+        <v>1885</v>
       </c>
       <c r="C86" t="n">
-        <v>3119</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1644</v>
+        <v>8</v>
       </c>
       <c r="B87" t="n">
-        <v>6621</v>
+        <v>103</v>
       </c>
       <c r="C87" t="n">
-        <v>6849</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21</v>
+        <v>1683</v>
       </c>
       <c r="B88" t="n">
-        <v>363</v>
+        <v>4765</v>
       </c>
       <c r="C88" t="n">
-        <v>429</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>319</v>
+        <v>3219</v>
       </c>
       <c r="C89" t="n">
-        <v>633</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>664</v>
+        <v>18</v>
       </c>
       <c r="B90" t="n">
-        <v>5871</v>
+        <v>219</v>
       </c>
       <c r="C90" t="n">
-        <v>6105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1703</v>
       </c>
       <c r="C91" t="n">
-        <v>46</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4</v>
+        <v>2206</v>
       </c>
       <c r="B92" t="n">
-        <v>2433</v>
+        <v>6784</v>
       </c>
       <c r="C92" t="n">
-        <v>2727</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="B93" t="n">
-        <v>3922</v>
+        <v>518</v>
       </c>
       <c r="C93" t="n">
-        <v>4134</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="B94" t="n">
-        <v>1463</v>
+        <v>3036</v>
       </c>
       <c r="C94" t="n">
-        <v>1607</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>337</v>
+        <v>1495</v>
       </c>
       <c r="B95" t="n">
-        <v>5265</v>
+        <v>5748</v>
       </c>
       <c r="C95" t="n">
-        <v>5519</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>572</v>
+        <v>2156</v>
       </c>
       <c r="C96" t="n">
-        <v>702</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>698</v>
+        <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>5982</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>6296</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>48</v>
+        <v>1641</v>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>3973</v>
+        <v>149</v>
       </c>
       <c r="C99" t="n">
-        <v>4101</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B100" t="n">
-        <v>3966</v>
+        <v>2421</v>
       </c>
       <c r="C100" t="n">
-        <v>4118</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>923</v>
+        <v>823</v>
       </c>
       <c r="B101" t="n">
-        <v>6550</v>
+        <v>4629</v>
       </c>
       <c r="C101" t="n">
-        <v>6672</v>
+        <v>4807</v>
       </c>
     </row>
   </sheetData>
